--- a/data/trans_dic/P1802_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1802_2016_2023-Provincia-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.2050529068866487</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2787912621319524</v>
+        <v>0.2787912621319525</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2552297858297227</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1590026012693639</v>
+        <v>0.1641917722651734</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2331157717495386</v>
+        <v>0.2335445311197274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2063154578905042</v>
+        <v>0.2054572506445481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3353426786972841</v>
+        <v>0.3340184645250652</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1940685587261688</v>
+        <v>0.1958124174118276</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2945296776507697</v>
+        <v>0.292082667811654</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2545432214245665</v>
+        <v>0.2648033189660224</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3323334434290406</v>
+        <v>0.3343321438060401</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3095883116224674</v>
+        <v>0.3114794068094657</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4221029361965018</v>
+        <v>0.4194855225803515</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2662944421438348</v>
+        <v>0.2686915301434913</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3628037536396416</v>
+        <v>0.3632390898714511</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1245824317470777</v>
+        <v>0.1246220667104406</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08152495790290359</v>
+        <v>0.08365983800280673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1624510985144656</v>
+        <v>0.1598687310239521</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1430985521753994</v>
+        <v>0.1426968050496713</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1490762539074936</v>
+        <v>0.150599765751078</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1187650146886353</v>
+        <v>0.1207033053467822</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.19240521204931</v>
+        <v>0.1898083632342272</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1414805587286976</v>
+        <v>0.144127858780286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2362664004358956</v>
+        <v>0.2307880052193464</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.200602593138324</v>
+        <v>0.2017646933235329</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2003806334995624</v>
+        <v>0.2004360586449855</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1625074568775449</v>
+        <v>0.1620042079635663</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.08735895410748443</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2439653380600555</v>
+        <v>0.2439653380600554</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04939229783169597</v>
+        <v>0.05065301360171322</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1836206434094498</v>
+        <v>0.1830954599124256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06911519541999618</v>
+        <v>0.07066573660366415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2219362453462031</v>
+        <v>0.2240522478956001</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06812094866888871</v>
+        <v>0.06673367049985421</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2150697034414761</v>
+        <v>0.2152922741055581</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1048997166167067</v>
+        <v>0.1075302079762319</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2639202785179834</v>
+        <v>0.2717462085100946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1394082201950767</v>
+        <v>0.1379130006151124</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3010356585856245</v>
+        <v>0.2991807138989312</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1111610686175012</v>
+        <v>0.1109136678763972</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2729520222077136</v>
+        <v>0.2739060369176882</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.2053396650120038</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.1435559266455311</v>
+        <v>0.143555926645531</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1505345544656855</v>
+        <v>0.1500646646003001</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.104018497826338</v>
+        <v>0.1062153191113781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.182765116981427</v>
+        <v>0.1800196212913977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1174485263023453</v>
+        <v>0.1163293067251277</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1772558321137108</v>
+        <v>0.1734243182678822</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1219407821721728</v>
+        <v>0.121914933988171</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.236311340907674</v>
+        <v>0.2338610030608997</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.187893238692481</v>
+        <v>0.1958676672967562</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.269739904637967</v>
+        <v>0.2667440989377131</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1762970048975145</v>
+        <v>0.1791413538224864</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2386479849456821</v>
+        <v>0.2353754549035715</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1750980538615317</v>
+        <v>0.1751997434034271</v>
       </c>
     </row>
     <row r="16">
@@ -946,13 +946,13 @@
         <v>0.1836396663093675</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05540237081126303</v>
+        <v>0.05540237081126301</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1853431023420449</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.08489155174241479</v>
+        <v>0.08489155174241478</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1394443590953714</v>
+        <v>0.1372932666743718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08172332740917396</v>
+        <v>0.07844639567543836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1401173506737607</v>
+        <v>0.1357445713497442</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03788302811882512</v>
+        <v>0.03879978169268605</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1513332712254276</v>
+        <v>0.1503896797941972</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06373320984420761</v>
+        <v>0.06483507810606833</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2421438066876228</v>
+        <v>0.2428522708975472</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1645022893786667</v>
+        <v>0.164665940607404</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2437755951427308</v>
+        <v>0.2441202680923912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07541460083385138</v>
+        <v>0.07746916431246552</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2255437261573116</v>
+        <v>0.2230470641853791</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.11011111834872</v>
+        <v>0.1128853804453672</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.2044986184410832</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1972707488609066</v>
+        <v>0.1972707488609065</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1703791841997535</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09831270567302537</v>
+        <v>0.0997252104242862</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1321715492605703</v>
+        <v>0.1324929039288829</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1606877974750645</v>
+        <v>0.1581905919430652</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1620995537417937</v>
+        <v>0.1617547517818395</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1381440912350957</v>
+        <v>0.1391183177903243</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.156576646966824</v>
+        <v>0.1565968694419503</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1817924124863097</v>
+        <v>0.181643829944418</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2115768543051681</v>
+        <v>0.213106581335907</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2597547928253802</v>
+        <v>0.2598969488771898</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2365054412996215</v>
+        <v>0.2381673070105378</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2029772974758747</v>
+        <v>0.2020045199955984</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2090806890928319</v>
+        <v>0.2117397658971367</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08045475049141777</v>
+        <v>0.08243302888834066</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1709021953891979</v>
+        <v>0.1701476123061145</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1369231474162425</v>
+        <v>0.134267293872665</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2371856261099398</v>
+        <v>0.2419984613947354</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1177802945458181</v>
+        <v>0.1157932867162341</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.213078172632017</v>
+        <v>0.2147522744856122</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1270984949352888</v>
+        <v>0.1317767902843034</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2397236742239347</v>
+        <v>0.239327099804721</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1984890769918815</v>
+        <v>0.1944009170082652</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2979900188858767</v>
+        <v>0.3020489696860281</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1542614604829564</v>
+        <v>0.1560904498055704</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2576507838545584</v>
+        <v>0.2599324820152618</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1208694325901042</v>
+        <v>0.1225045637658054</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04348143406420604</v>
+        <v>0.04445780674096351</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1699065799385198</v>
+        <v>0.1710687149704856</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05976260565136811</v>
+        <v>0.05939513958732317</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1549024960339026</v>
+        <v>0.1533566223136282</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05690880938196042</v>
+        <v>0.05672622436753001</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1721729444534442</v>
+        <v>0.1739185283239975</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08103185290144652</v>
+        <v>0.07950651653589925</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2306988355600528</v>
+        <v>0.2264611727879993</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09201184014212301</v>
+        <v>0.08987084688697036</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1917941115089336</v>
+        <v>0.1913558250153485</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0793750961354945</v>
+        <v>0.07958848479175085</v>
       </c>
     </row>
     <row r="28">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1318809573924168</v>
+        <v>0.1313151455894135</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1374287181363199</v>
+        <v>0.1391304719102425</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1750872298406281</v>
+        <v>0.1736576912159333</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.17793233463147</v>
+        <v>0.1758141308863386</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1575395509821492</v>
+        <v>0.1574591936320326</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1618553402134795</v>
+        <v>0.1609210049243604</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1568060713198146</v>
+        <v>0.1567554798850076</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.163037165228758</v>
+        <v>0.1655407508346795</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2022206029643789</v>
+        <v>0.2007589133787732</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1992049447352268</v>
+        <v>0.1982585426646914</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1765954239699091</v>
+        <v>0.1760526180127824</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1784459698150788</v>
+        <v>0.1785903025396678</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>46709</v>
+        <v>48233</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>74328</v>
+        <v>74465</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>59564</v>
+        <v>59316</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>105989</v>
+        <v>105570</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>113038</v>
+        <v>114054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>186999</v>
+        <v>185445</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>74775</v>
+        <v>77789</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>105963</v>
+        <v>106600</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>89379</v>
+        <v>89925</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>133410</v>
+        <v>132583</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>155107</v>
+        <v>156503</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>230346</v>
+        <v>230623</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>62612</v>
+        <v>62632</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43261</v>
+        <v>44394</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>84976</v>
+        <v>83625</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77818</v>
+        <v>77600</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>152901</v>
+        <v>154464</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>127608</v>
+        <v>129690</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>96698</v>
+        <v>95393</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>75076</v>
+        <v>76481</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>123587</v>
+        <v>120722</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>109089</v>
+        <v>109721</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>205522</v>
+        <v>205579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>174607</v>
+        <v>174066</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15735</v>
+        <v>16136</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58023</v>
+        <v>57857</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23244</v>
+        <v>23766</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>79094</v>
+        <v>79848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>44611</v>
+        <v>43702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>144607</v>
+        <v>144757</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33417</v>
+        <v>34255</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>83397</v>
+        <v>85870</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46884</v>
+        <v>46381</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>107283</v>
+        <v>106622</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>72796</v>
+        <v>72634</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>183526</v>
+        <v>184168</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55692</v>
+        <v>55519</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>38814</v>
+        <v>39634</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70782</v>
+        <v>69719</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>49559</v>
+        <v>49086</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>134226</v>
+        <v>131325</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>96956</v>
+        <v>96935</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87427</v>
+        <v>86520</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>70111</v>
+        <v>73087</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>104466</v>
+        <v>103305</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>74390</v>
+        <v>75591</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>180715</v>
+        <v>178237</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>139222</v>
+        <v>139303</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29454</v>
+        <v>28999</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16808</v>
+        <v>16134</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>30628</v>
+        <v>29672</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8608</v>
+        <v>8816</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>65044</v>
+        <v>64639</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>27589</v>
+        <v>28066</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>51146</v>
+        <v>51295</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33832</v>
+        <v>33866</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>53286</v>
+        <v>53362</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>17135</v>
+        <v>17602</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>96940</v>
+        <v>95867</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>47665</v>
+        <v>48866</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25868</v>
+        <v>26240</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>35780</v>
+        <v>35867</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>43886</v>
+        <v>43204</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>42754</v>
+        <v>42663</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>74078</v>
+        <v>74601</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>83683</v>
+        <v>83694</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>47834</v>
+        <v>47795</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>57275</v>
+        <v>57689</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>70943</v>
+        <v>70982</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>62378</v>
+        <v>62817</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>108844</v>
+        <v>108322</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>111745</v>
+        <v>113166</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>52823</v>
+        <v>54122</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>122711</v>
+        <v>122169</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>94654</v>
+        <v>92818</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>183121</v>
+        <v>186837</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>158750</v>
+        <v>156072</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>317502</v>
+        <v>319997</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>83448</v>
+        <v>86519</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>172125</v>
+        <v>171841</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>137214</v>
+        <v>134388</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>230065</v>
+        <v>233199</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>207922</v>
+        <v>210387</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>383918</v>
+        <v>387318</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>94107</v>
+        <v>95380</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>34701</v>
+        <v>35481</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>140371</v>
+        <v>141331</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>49645</v>
+        <v>49339</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>248580</v>
+        <v>246099</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>92691</v>
+        <v>92394</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>134051</v>
+        <v>135410</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>64669</v>
+        <v>63452</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>190596</v>
+        <v>187095</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>76434</v>
+        <v>74656</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>307782</v>
+        <v>307078</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>129284</v>
+        <v>129631</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>447650</v>
+        <v>445730</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>485273</v>
+        <v>491282</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>620604</v>
+        <v>615537</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>664031</v>
+        <v>656126</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1093150</v>
+        <v>1092592</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1175559</v>
+        <v>1168773</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>532255</v>
+        <v>532083</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>575699</v>
+        <v>584539</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>716779</v>
+        <v>711598</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>743419</v>
+        <v>739887</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1225377</v>
+        <v>1221610</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1296057</v>
+        <v>1297105</v>
       </c>
     </row>
     <row r="40">
